--- a/version_compatibility/report.xlsx
+++ b/version_compatibility/report.xlsx
@@ -5817,37 +5817,24 @@
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: AngularVelocityMeasureType</t>
-        </is>
-      </c>
-      <c r="D149" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="inlineStr"/>
       <c r="E149" s="2" t="inlineStr"/>
-      <c r="F149" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)</t>
-        </is>
-      </c>
+      <c r="F149" s="2" t="inlineStr"/>
       <c r="G149" s="2" t="inlineStr"/>
-      <c r="H149" s="2" t="inlineStr">
-        <is>
-          <t>@uom(optional)</t>
-        </is>
-      </c>
+      <c r="H149" s="2" t="inlineStr"/>
       <c r="I149" s="2" t="inlineStr"/>
       <c r="J149" s="2" t="inlineStr"/>
       <c r="K149" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L149" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L149" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -5864,37 +5851,24 @@
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: AngularVelocityMeasureType</t>
-        </is>
-      </c>
-      <c r="D150" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="inlineStr"/>
       <c r="E150" s="2" t="inlineStr"/>
-      <c r="F150" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)</t>
-        </is>
-      </c>
+      <c r="F150" s="2" t="inlineStr"/>
       <c r="G150" s="2" t="inlineStr"/>
-      <c r="H150" s="2" t="inlineStr">
-        <is>
-          <t>@uom(optional)</t>
-        </is>
-      </c>
+      <c r="H150" s="2" t="inlineStr"/>
       <c r="I150" s="2" t="inlineStr"/>
       <c r="J150" s="2" t="inlineStr"/>
       <c r="K150" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L150" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L150" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -5911,37 +5885,24 @@
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: AreaMeasureType</t>
-        </is>
-      </c>
-      <c r="D151" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D151" s="2" t="inlineStr"/>
       <c r="E151" s="2" t="inlineStr"/>
-      <c r="F151" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)</t>
-        </is>
-      </c>
+      <c r="F151" s="2" t="inlineStr"/>
       <c r="G151" s="2" t="inlineStr"/>
-      <c r="H151" s="2" t="inlineStr">
-        <is>
-          <t>@uom(optional)</t>
-        </is>
-      </c>
+      <c r="H151" s="2" t="inlineStr"/>
       <c r="I151" s="2" t="inlineStr"/>
       <c r="J151" s="2" t="inlineStr"/>
       <c r="K151" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L151" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L151" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -6060,37 +6021,24 @@
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: AreaPerAreaMeasureType</t>
-        </is>
-      </c>
-      <c r="D155" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D155" s="2" t="inlineStr"/>
       <c r="E155" s="2" t="inlineStr"/>
-      <c r="F155" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)</t>
-        </is>
-      </c>
+      <c r="F155" s="2" t="inlineStr"/>
       <c r="G155" s="2" t="inlineStr"/>
-      <c r="H155" s="2" t="inlineStr">
-        <is>
-          <t>@uom(optional)</t>
-        </is>
-      </c>
+      <c r="H155" s="2" t="inlineStr"/>
       <c r="I155" s="2" t="inlineStr"/>
       <c r="J155" s="2" t="inlineStr"/>
       <c r="K155" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L155" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L155" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -11377,7 +11325,7 @@
       </c>
       <c r="C302" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: CostType</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D302" s="2" t="inlineStr"/>
@@ -11389,12 +11337,12 @@
       <c r="J302" s="2" t="inlineStr"/>
       <c r="K302" s="2" t="inlineStr">
         <is>
-          <t>Type renamed from Cost to CostType</t>
-        </is>
-      </c>
-      <c r="L302" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L302" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -13596,37 +13544,24 @@
       </c>
       <c r="C365" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: DimensionlessMeasureType</t>
-        </is>
-      </c>
-      <c r="D365" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D365" s="2" t="inlineStr"/>
       <c r="E365" s="2" t="inlineStr"/>
-      <c r="F365" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)</t>
-        </is>
-      </c>
+      <c r="F365" s="2" t="inlineStr"/>
       <c r="G365" s="2" t="inlineStr"/>
-      <c r="H365" s="2" t="inlineStr">
-        <is>
-          <t>@uom(optional)</t>
-        </is>
-      </c>
+      <c r="H365" s="2" t="inlineStr"/>
       <c r="I365" s="2" t="inlineStr"/>
       <c r="J365" s="2" t="inlineStr"/>
       <c r="K365" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L365" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L365" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -15603,37 +15538,24 @@
       </c>
       <c r="C421" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: DynamicViscosityMeasureType</t>
-        </is>
-      </c>
-      <c r="D421" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D421" s="2" t="inlineStr"/>
       <c r="E421" s="2" t="inlineStr"/>
-      <c r="F421" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)</t>
-        </is>
-      </c>
+      <c r="F421" s="2" t="inlineStr"/>
       <c r="G421" s="2" t="inlineStr"/>
-      <c r="H421" s="2" t="inlineStr">
-        <is>
-          <t>@uom(optional)</t>
-        </is>
-      </c>
+      <c r="H421" s="2" t="inlineStr"/>
       <c r="I421" s="2" t="inlineStr"/>
       <c r="J421" s="2" t="inlineStr"/>
       <c r="K421" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L421" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L421" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -15650,37 +15572,24 @@
       </c>
       <c r="C422" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: DynamicViscosityMeasureType</t>
-        </is>
-      </c>
-      <c r="D422" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D422" s="2" t="inlineStr"/>
       <c r="E422" s="2" t="inlineStr"/>
-      <c r="F422" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)</t>
-        </is>
-      </c>
+      <c r="F422" s="2" t="inlineStr"/>
       <c r="G422" s="2" t="inlineStr"/>
-      <c r="H422" s="2" t="inlineStr">
-        <is>
-          <t>@uom(optional)</t>
-        </is>
-      </c>
+      <c r="H422" s="2" t="inlineStr"/>
       <c r="I422" s="2" t="inlineStr"/>
       <c r="J422" s="2" t="inlineStr"/>
       <c r="K422" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L422" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L422" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -16377,37 +16286,24 @@
       </c>
       <c r="C443" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: ElectricPotentialDifferenceMeasureType</t>
-        </is>
-      </c>
-      <c r="D443" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D443" s="2" t="inlineStr"/>
       <c r="E443" s="2" t="inlineStr"/>
-      <c r="F443" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)</t>
-        </is>
-      </c>
+      <c r="F443" s="2" t="inlineStr"/>
       <c r="G443" s="2" t="inlineStr"/>
-      <c r="H443" s="2" t="inlineStr">
-        <is>
-          <t>@uom(optional)</t>
-        </is>
-      </c>
+      <c r="H443" s="2" t="inlineStr"/>
       <c r="I443" s="2" t="inlineStr"/>
       <c r="J443" s="2" t="inlineStr"/>
       <c r="K443" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L443" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L443" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -17232,37 +17128,24 @@
       </c>
       <c r="C468" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: EnergyPerVolumeMeasureType</t>
-        </is>
-      </c>
-      <c r="D468" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D468" s="2" t="inlineStr"/>
       <c r="E468" s="2" t="inlineStr"/>
-      <c r="F468" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)</t>
-        </is>
-      </c>
+      <c r="F468" s="2" t="inlineStr"/>
       <c r="G468" s="2" t="inlineStr"/>
-      <c r="H468" s="2" t="inlineStr">
-        <is>
-          <t>@uom(optional)</t>
-        </is>
-      </c>
+      <c r="H468" s="2" t="inlineStr"/>
       <c r="I468" s="2" t="inlineStr"/>
       <c r="J468" s="2" t="inlineStr"/>
       <c r="K468" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L468" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L468" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -19318,37 +19201,24 @@
       </c>
       <c r="C526" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: ForceMeasureType</t>
-        </is>
-      </c>
-      <c r="D526" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D526" s="2" t="inlineStr"/>
       <c r="E526" s="2" t="inlineStr"/>
-      <c r="F526" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)</t>
-        </is>
-      </c>
+      <c r="F526" s="2" t="inlineStr"/>
       <c r="G526" s="2" t="inlineStr"/>
-      <c r="H526" s="2" t="inlineStr">
-        <is>
-          <t>@uom(optional)</t>
-        </is>
-      </c>
+      <c r="H526" s="2" t="inlineStr"/>
       <c r="I526" s="2" t="inlineStr"/>
       <c r="J526" s="2" t="inlineStr"/>
       <c r="K526" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L526" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L526" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -19365,37 +19235,24 @@
       </c>
       <c r="C527" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: ForceMeasureType</t>
-        </is>
-      </c>
-      <c r="D527" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D527" s="2" t="inlineStr"/>
       <c r="E527" s="2" t="inlineStr"/>
-      <c r="F527" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)</t>
-        </is>
-      </c>
+      <c r="F527" s="2" t="inlineStr"/>
       <c r="G527" s="2" t="inlineStr"/>
-      <c r="H527" s="2" t="inlineStr">
-        <is>
-          <t>@uom(optional)</t>
-        </is>
-      </c>
+      <c r="H527" s="2" t="inlineStr"/>
       <c r="I527" s="2" t="inlineStr"/>
       <c r="J527" s="2" t="inlineStr"/>
       <c r="K527" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L527" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L527" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -19446,37 +19303,24 @@
       </c>
       <c r="C529" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: ForcePerForceMeasureType</t>
-        </is>
-      </c>
-      <c r="D529" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D529" s="2" t="inlineStr"/>
       <c r="E529" s="2" t="inlineStr"/>
-      <c r="F529" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)</t>
-        </is>
-      </c>
+      <c r="F529" s="2" t="inlineStr"/>
       <c r="G529" s="2" t="inlineStr"/>
-      <c r="H529" s="2" t="inlineStr">
-        <is>
-          <t>@uom(optional)</t>
-        </is>
-      </c>
+      <c r="H529" s="2" t="inlineStr"/>
       <c r="I529" s="2" t="inlineStr"/>
       <c r="J529" s="2" t="inlineStr"/>
       <c r="K529" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L529" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L529" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -19493,37 +19337,24 @@
       </c>
       <c r="C530" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: ForcePerLengthMeasureType</t>
-        </is>
-      </c>
-      <c r="D530" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D530" s="2" t="inlineStr"/>
       <c r="E530" s="2" t="inlineStr"/>
-      <c r="F530" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)</t>
-        </is>
-      </c>
+      <c r="F530" s="2" t="inlineStr"/>
       <c r="G530" s="2" t="inlineStr"/>
-      <c r="H530" s="2" t="inlineStr">
-        <is>
-          <t>@uom(optional)</t>
-        </is>
-      </c>
+      <c r="H530" s="2" t="inlineStr"/>
       <c r="I530" s="2" t="inlineStr"/>
       <c r="J530" s="2" t="inlineStr"/>
       <c r="K530" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L530" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L530" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -19574,37 +19405,24 @@
       </c>
       <c r="C532" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: ForcePerVolumeMeasureType</t>
-        </is>
-      </c>
-      <c r="D532" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D532" s="2" t="inlineStr"/>
       <c r="E532" s="2" t="inlineStr"/>
-      <c r="F532" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)</t>
-        </is>
-      </c>
+      <c r="F532" s="2" t="inlineStr"/>
       <c r="G532" s="2" t="inlineStr"/>
-      <c r="H532" s="2" t="inlineStr">
-        <is>
-          <t>@uom(optional)</t>
-        </is>
-      </c>
+      <c r="H532" s="2" t="inlineStr"/>
       <c r="I532" s="2" t="inlineStr"/>
       <c r="J532" s="2" t="inlineStr"/>
       <c r="K532" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L532" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L532" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -19621,37 +19439,24 @@
       </c>
       <c r="C533" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: ForcePerVolumeMeasureType</t>
-        </is>
-      </c>
-      <c r="D533" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D533" s="2" t="inlineStr"/>
       <c r="E533" s="2" t="inlineStr"/>
-      <c r="F533" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)</t>
-        </is>
-      </c>
+      <c r="F533" s="2" t="inlineStr"/>
       <c r="G533" s="2" t="inlineStr"/>
-      <c r="H533" s="2" t="inlineStr">
-        <is>
-          <t>@uom(optional)</t>
-        </is>
-      </c>
+      <c r="H533" s="2" t="inlineStr"/>
       <c r="I533" s="2" t="inlineStr"/>
       <c r="J533" s="2" t="inlineStr"/>
       <c r="K533" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L533" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L533" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -26750,37 +26555,24 @@
       </c>
       <c r="C726" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: LengthMeasureType</t>
-        </is>
-      </c>
-      <c r="D726" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D726" s="2" t="inlineStr"/>
       <c r="E726" s="2" t="inlineStr"/>
-      <c r="F726" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)</t>
-        </is>
-      </c>
+      <c r="F726" s="2" t="inlineStr"/>
       <c r="G726" s="2" t="inlineStr"/>
-      <c r="H726" s="2" t="inlineStr">
-        <is>
-          <t>@uom(optional)</t>
-        </is>
-      </c>
+      <c r="H726" s="2" t="inlineStr"/>
       <c r="I726" s="2" t="inlineStr"/>
       <c r="J726" s="2" t="inlineStr"/>
       <c r="K726" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L726" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L726" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -26797,37 +26589,24 @@
       </c>
       <c r="C727" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: LengthMeasureType</t>
-        </is>
-      </c>
-      <c r="D727" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D727" s="2" t="inlineStr"/>
       <c r="E727" s="2" t="inlineStr"/>
-      <c r="F727" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)</t>
-        </is>
-      </c>
+      <c r="F727" s="2" t="inlineStr"/>
       <c r="G727" s="2" t="inlineStr"/>
-      <c r="H727" s="2" t="inlineStr">
-        <is>
-          <t>@uom(optional)</t>
-        </is>
-      </c>
+      <c r="H727" s="2" t="inlineStr"/>
       <c r="I727" s="2" t="inlineStr"/>
       <c r="J727" s="2" t="inlineStr"/>
       <c r="K727" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L727" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L727" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -26844,37 +26623,24 @@
       </c>
       <c r="C728" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: LengthPerLengthMeasureType</t>
-        </is>
-      </c>
-      <c r="D728" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D728" s="2" t="inlineStr"/>
       <c r="E728" s="2" t="inlineStr"/>
-      <c r="F728" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)</t>
-        </is>
-      </c>
+      <c r="F728" s="2" t="inlineStr"/>
       <c r="G728" s="2" t="inlineStr"/>
-      <c r="H728" s="2" t="inlineStr">
-        <is>
-          <t>@uom(optional)</t>
-        </is>
-      </c>
+      <c r="H728" s="2" t="inlineStr"/>
       <c r="I728" s="2" t="inlineStr"/>
       <c r="J728" s="2" t="inlineStr"/>
       <c r="K728" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L728" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L728" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -30442,37 +30208,24 @@
       </c>
       <c r="C828" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: MassMeasureType</t>
-        </is>
-      </c>
-      <c r="D828" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D828" s="2" t="inlineStr"/>
       <c r="E828" s="2" t="inlineStr"/>
-      <c r="F828" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)</t>
-        </is>
-      </c>
+      <c r="F828" s="2" t="inlineStr"/>
       <c r="G828" s="2" t="inlineStr"/>
-      <c r="H828" s="2" t="inlineStr">
-        <is>
-          <t>@uom(optional)</t>
-        </is>
-      </c>
+      <c r="H828" s="2" t="inlineStr"/>
       <c r="I828" s="2" t="inlineStr"/>
       <c r="J828" s="2" t="inlineStr"/>
       <c r="K828" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L828" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L828" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -30727,37 +30480,24 @@
       </c>
       <c r="C836" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: MassPerMassMeasureType</t>
-        </is>
-      </c>
-      <c r="D836" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D836" s="2" t="inlineStr"/>
       <c r="E836" s="2" t="inlineStr"/>
-      <c r="F836" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)</t>
-        </is>
-      </c>
+      <c r="F836" s="2" t="inlineStr"/>
       <c r="G836" s="2" t="inlineStr"/>
-      <c r="H836" s="2" t="inlineStr">
-        <is>
-          <t>@uom(optional)</t>
-        </is>
-      </c>
+      <c r="H836" s="2" t="inlineStr"/>
       <c r="I836" s="2" t="inlineStr"/>
       <c r="J836" s="2" t="inlineStr"/>
       <c r="K836" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L836" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L836" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -31012,37 +30752,24 @@
       </c>
       <c r="C844" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: MassPerVolumeMeasureType</t>
-        </is>
-      </c>
-      <c r="D844" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D844" s="2" t="inlineStr"/>
       <c r="E844" s="2" t="inlineStr"/>
-      <c r="F844" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)</t>
-        </is>
-      </c>
+      <c r="F844" s="2" t="inlineStr"/>
       <c r="G844" s="2" t="inlineStr"/>
-      <c r="H844" s="2" t="inlineStr">
-        <is>
-          <t>@uom(optional)</t>
-        </is>
-      </c>
+      <c r="H844" s="2" t="inlineStr"/>
       <c r="I844" s="2" t="inlineStr"/>
       <c r="J844" s="2" t="inlineStr"/>
       <c r="K844" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L844" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L844" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -32167,37 +31894,24 @@
       </c>
       <c r="C876" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: MomentOfForceMeasureType</t>
-        </is>
-      </c>
-      <c r="D876" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D876" s="2" t="inlineStr"/>
       <c r="E876" s="2" t="inlineStr"/>
-      <c r="F876" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)</t>
-        </is>
-      </c>
+      <c r="F876" s="2" t="inlineStr"/>
       <c r="G876" s="2" t="inlineStr"/>
-      <c r="H876" s="2" t="inlineStr">
-        <is>
-          <t>@uom(optional)</t>
-        </is>
-      </c>
+      <c r="H876" s="2" t="inlineStr"/>
       <c r="I876" s="2" t="inlineStr"/>
       <c r="J876" s="2" t="inlineStr"/>
       <c r="K876" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L876" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L876" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -32214,37 +31928,24 @@
       </c>
       <c r="C877" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: MomentOfForceMeasureType</t>
-        </is>
-      </c>
-      <c r="D877" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D877" s="2" t="inlineStr"/>
       <c r="E877" s="2" t="inlineStr"/>
-      <c r="F877" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)</t>
-        </is>
-      </c>
+      <c r="F877" s="2" t="inlineStr"/>
       <c r="G877" s="2" t="inlineStr"/>
-      <c r="H877" s="2" t="inlineStr">
-        <is>
-          <t>@uom(optional)</t>
-        </is>
-      </c>
+      <c r="H877" s="2" t="inlineStr"/>
       <c r="I877" s="2" t="inlineStr"/>
       <c r="J877" s="2" t="inlineStr"/>
       <c r="K877" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L877" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L877" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -35291,37 +34992,24 @@
       </c>
       <c r="C965" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: PermeabilityRockMeasureType</t>
-        </is>
-      </c>
-      <c r="D965" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D965" s="2" t="inlineStr"/>
       <c r="E965" s="2" t="inlineStr"/>
-      <c r="F965" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)</t>
-        </is>
-      </c>
+      <c r="F965" s="2" t="inlineStr"/>
       <c r="G965" s="2" t="inlineStr"/>
-      <c r="H965" s="2" t="inlineStr">
-        <is>
-          <t>@uom(optional)</t>
-        </is>
-      </c>
+      <c r="H965" s="2" t="inlineStr"/>
       <c r="I965" s="2" t="inlineStr"/>
       <c r="J965" s="2" t="inlineStr"/>
       <c r="K965" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L965" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L965" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -35723,37 +35411,24 @@
       </c>
       <c r="C977" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: PlaneAngleMeasureType</t>
-        </is>
-      </c>
-      <c r="D977" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D977" s="2" t="inlineStr"/>
       <c r="E977" s="2" t="inlineStr"/>
-      <c r="F977" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)</t>
-        </is>
-      </c>
+      <c r="F977" s="2" t="inlineStr"/>
       <c r="G977" s="2" t="inlineStr"/>
-      <c r="H977" s="2" t="inlineStr">
-        <is>
-          <t>@uom(optional)</t>
-        </is>
-      </c>
+      <c r="H977" s="2" t="inlineStr"/>
       <c r="I977" s="2" t="inlineStr"/>
       <c r="J977" s="2" t="inlineStr"/>
       <c r="K977" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L977" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L977" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -36749,37 +36424,24 @@
       </c>
       <c r="C1005" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: PowerMeasureType</t>
-        </is>
-      </c>
-      <c r="D1005" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D1005" s="2" t="inlineStr"/>
       <c r="E1005" s="2" t="inlineStr"/>
-      <c r="F1005" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)</t>
-        </is>
-      </c>
+      <c r="F1005" s="2" t="inlineStr"/>
       <c r="G1005" s="2" t="inlineStr"/>
-      <c r="H1005" s="2" t="inlineStr">
-        <is>
-          <t>@uom(optional)</t>
-        </is>
-      </c>
+      <c r="H1005" s="2" t="inlineStr"/>
       <c r="I1005" s="2" t="inlineStr"/>
       <c r="J1005" s="2" t="inlineStr"/>
       <c r="K1005" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L1005" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L1005" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -37265,37 +36927,24 @@
       </c>
       <c r="C1020" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: PressureMeasureType</t>
-        </is>
-      </c>
-      <c r="D1020" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D1020" s="2" t="inlineStr"/>
       <c r="E1020" s="2" t="inlineStr"/>
-      <c r="F1020" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)</t>
-        </is>
-      </c>
+      <c r="F1020" s="2" t="inlineStr"/>
       <c r="G1020" s="2" t="inlineStr"/>
-      <c r="H1020" s="2" t="inlineStr">
-        <is>
-          <t>@uom(optional)</t>
-        </is>
-      </c>
+      <c r="H1020" s="2" t="inlineStr"/>
       <c r="I1020" s="2" t="inlineStr"/>
       <c r="J1020" s="2" t="inlineStr"/>
       <c r="K1020" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L1020" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L1020" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -37312,37 +36961,24 @@
       </c>
       <c r="C1021" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: PressureMeasureType</t>
-        </is>
-      </c>
-      <c r="D1021" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D1021" s="2" t="inlineStr"/>
       <c r="E1021" s="2" t="inlineStr"/>
-      <c r="F1021" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)</t>
-        </is>
-      </c>
+      <c r="F1021" s="2" t="inlineStr"/>
       <c r="G1021" s="2" t="inlineStr"/>
-      <c r="H1021" s="2" t="inlineStr">
-        <is>
-          <t>@uom(optional)</t>
-        </is>
-      </c>
+      <c r="H1021" s="2" t="inlineStr"/>
       <c r="I1021" s="2" t="inlineStr"/>
       <c r="J1021" s="2" t="inlineStr"/>
       <c r="K1021" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L1021" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L1021" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -37393,37 +37029,24 @@
       </c>
       <c r="C1023" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: PressurePerPressureMeasureType</t>
-        </is>
-      </c>
-      <c r="D1023" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D1023" s="2" t="inlineStr"/>
       <c r="E1023" s="2" t="inlineStr"/>
-      <c r="F1023" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)</t>
-        </is>
-      </c>
+      <c r="F1023" s="2" t="inlineStr"/>
       <c r="G1023" s="2" t="inlineStr"/>
-      <c r="H1023" s="2" t="inlineStr">
-        <is>
-          <t>@uom(optional)</t>
-        </is>
-      </c>
+      <c r="H1023" s="2" t="inlineStr"/>
       <c r="I1023" s="2" t="inlineStr"/>
       <c r="J1023" s="2" t="inlineStr"/>
       <c r="K1023" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L1023" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L1023" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -38712,8 +38335,8 @@
         <is>
           <t>atTemperature: eml:ThermodynamicTemperatureMeasure → ThermodynamicTemperatureMeasureType [OK]
 context: DiggsStringType → string [INCOMPATIBLE: Built-in type change: DiggsStringType → string]
-curveDerivation: witsml:ChannelDerivation → ChannelDerivationEnumType [OK]
-curveState: witsml:ChannelState → ChannelStateEnumType [OK]
+curveDerivation: witsml:ChannelDerivation → ChannelDerivationEnumType [INCOMPATIBLE: Old type ChannelDerivation not found in old schema]
+curveState: witsml:ChannelState → ChannelStateEnumType [INCOMPATIBLE: Old type ChannelState not found in old schema]
 detectionLimits: LimitPropertyType → LimitArrayPropertyType [OK]
 measurementAxisBearing: eml:PlaneAngleMeasure → PlaneAngleMeasureType [OK]
 measurementAxisInclination: eml:PlaneAngleMeasure → PlaneAngleMeasureType [OK]
@@ -38724,7 +38347,7 @@
       </c>
       <c r="K1060" s="2" t="inlineStr">
         <is>
-          <t>Type renamed from PropertyType to PropertyType; Element removed: detector; Element removed: gml:name; Element removed: remark; Element removed: status; Attribute removed: xml:lang; Incompatible type change: context (Built-in type change: DiggsStringType → string); Cardinality restricted: detectionLimits; Incompatible type change: measurementTechnique (Old type DescriptorMethodEnumType not found in old schema)</t>
+          <t>Type renamed from PropertyType to PropertyType; Element removed: detector; Element removed: gml:name; Element removed: remark; Element removed: status; Attribute removed: xml:lang; Incompatible type change: context (Built-in type change: DiggsStringType → string); Incompatible type change: curveDerivation (Old type ChannelDerivation not found in old schema); Incompatible type change: curveState (Old type ChannelState not found in old schema); Cardinality restricted: detectionLimits; Incompatible type change: measurementTechnique (Old type DescriptorMethodEnumType not found in old schema)</t>
         </is>
       </c>
       <c r="L1060" s="3" t="inlineStr">
@@ -39865,37 +39488,24 @@
       </c>
       <c r="C1094" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: ReciprocalPressureMeasureType</t>
-        </is>
-      </c>
-      <c r="D1094" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D1094" s="2" t="inlineStr"/>
       <c r="E1094" s="2" t="inlineStr"/>
-      <c r="F1094" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)</t>
-        </is>
-      </c>
+      <c r="F1094" s="2" t="inlineStr"/>
       <c r="G1094" s="2" t="inlineStr"/>
-      <c r="H1094" s="2" t="inlineStr">
-        <is>
-          <t>@uom(optional)</t>
-        </is>
-      </c>
+      <c r="H1094" s="2" t="inlineStr"/>
       <c r="I1094" s="2" t="inlineStr"/>
       <c r="J1094" s="2" t="inlineStr"/>
       <c r="K1094" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L1094" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L1094" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -39955,37 +39565,24 @@
       </c>
       <c r="C1096" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: ReciprocalTimeMeasureType</t>
-        </is>
-      </c>
-      <c r="D1096" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D1096" s="2" t="inlineStr"/>
       <c r="E1096" s="2" t="inlineStr"/>
-      <c r="F1096" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)</t>
-        </is>
-      </c>
+      <c r="F1096" s="2" t="inlineStr"/>
       <c r="G1096" s="2" t="inlineStr"/>
-      <c r="H1096" s="2" t="inlineStr">
-        <is>
-          <t>@uom(optional)</t>
-        </is>
-      </c>
+      <c r="H1096" s="2" t="inlineStr"/>
       <c r="I1096" s="2" t="inlineStr"/>
       <c r="J1096" s="2" t="inlineStr"/>
       <c r="K1096" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L1096" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L1096" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -41680,14 +41277,14 @@
           <t>initialPreservationMethod: DiggsStringType → string [INCOMPATIBLE: Built-in type change: DiggsStringType → string]
 purpose: DiggsStringType → string [INCOMPATIBLE: Built-in type change: DiggsStringType → string]
 relativeReferenceSystemOrigin:  → relativeReferenceSystemOriginEnumType [OK]
-relativeReferencingSystem: AbstractRelativeReferenceSystemPropertyType → RelativeReferenceSystemPropertyType [INCOMPATIBLE: New required element: gml:AbstractSingleCRS]
+relativeReferencingSystem: AbstractRelativeReferenceSystemPropertyType → RelativeReferenceSystemPropertyType [INCOMPATIBLE: New required element: LinearSpatialReferenceSystem]
 sampleVolume: eml:VolumeMeasure → VolumeMeasureType [OK]
 sampleWeight: eml:ForceMeasure → ForceMeasureType [OK]</t>
         </is>
       </c>
       <c r="K1144" s="2" t="inlineStr">
         <is>
-          <t>Incompatible type change: initialPreservationMethod (Built-in type change: DiggsStringType → string); Incompatible type change: purpose (Built-in type change: DiggsStringType → string); Incompatible type change: relativeReferencingSystem (New required element: gml:AbstractSingleCRS)</t>
+          <t>Incompatible type change: initialPreservationMethod (Built-in type change: DiggsStringType → string); Incompatible type change: purpose (Built-in type change: DiggsStringType → string); Incompatible type change: relativeReferencingSystem (New required element: LinearSpatialReferenceSystem)</t>
         </is>
       </c>
       <c r="L1144" s="3" t="inlineStr">
@@ -47259,37 +46856,24 @@
       </c>
       <c r="C1301" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: ThermodynamicTemperatureMeasureType</t>
-        </is>
-      </c>
-      <c r="D1301" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D1301" s="2" t="inlineStr"/>
       <c r="E1301" s="2" t="inlineStr"/>
-      <c r="F1301" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)</t>
-        </is>
-      </c>
+      <c r="F1301" s="2" t="inlineStr"/>
       <c r="G1301" s="2" t="inlineStr"/>
-      <c r="H1301" s="2" t="inlineStr">
-        <is>
-          <t>@uom(optional)</t>
-        </is>
-      </c>
+      <c r="H1301" s="2" t="inlineStr"/>
       <c r="I1301" s="2" t="inlineStr"/>
       <c r="J1301" s="2" t="inlineStr"/>
       <c r="K1301" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L1301" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L1301" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -47306,37 +46890,24 @@
       </c>
       <c r="C1302" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: ThermodynamicTemperatureMeasureType</t>
-        </is>
-      </c>
-      <c r="D1302" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D1302" s="2" t="inlineStr"/>
       <c r="E1302" s="2" t="inlineStr"/>
-      <c r="F1302" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)</t>
-        </is>
-      </c>
+      <c r="F1302" s="2" t="inlineStr"/>
       <c r="G1302" s="2" t="inlineStr"/>
-      <c r="H1302" s="2" t="inlineStr">
-        <is>
-          <t>@uom(optional)</t>
-        </is>
-      </c>
+      <c r="H1302" s="2" t="inlineStr"/>
       <c r="I1302" s="2" t="inlineStr"/>
       <c r="J1302" s="2" t="inlineStr"/>
       <c r="K1302" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L1302" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L1302" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -47915,37 +47486,24 @@
       </c>
       <c r="C1320" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: TimeMeasureType</t>
-        </is>
-      </c>
-      <c r="D1320" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D1320" s="2" t="inlineStr"/>
       <c r="E1320" s="2" t="inlineStr"/>
-      <c r="F1320" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)</t>
-        </is>
-      </c>
+      <c r="F1320" s="2" t="inlineStr"/>
       <c r="G1320" s="2" t="inlineStr"/>
-      <c r="H1320" s="2" t="inlineStr">
-        <is>
-          <t>@uom(optional)</t>
-        </is>
-      </c>
+      <c r="H1320" s="2" t="inlineStr"/>
       <c r="I1320" s="2" t="inlineStr"/>
       <c r="J1320" s="2" t="inlineStr"/>
       <c r="K1320" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L1320" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L1320" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -49970,34 +49528,24 @@
       </c>
       <c r="C1374" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: DimensionlessMeasureType</t>
-        </is>
-      </c>
-      <c r="D1374" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D1374" s="2" t="inlineStr"/>
       <c r="E1374" s="2" t="inlineStr"/>
-      <c r="F1374" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)
-@uom(optional)</t>
-        </is>
-      </c>
+      <c r="F1374" s="2" t="inlineStr"/>
       <c r="G1374" s="2" t="inlineStr"/>
       <c r="H1374" s="2" t="inlineStr"/>
       <c r="I1374" s="2" t="inlineStr"/>
       <c r="J1374" s="2" t="inlineStr"/>
       <c r="K1374" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L1374" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L1374" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -50835,37 +50383,24 @@
       </c>
       <c r="C1399" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: VolumeMeasureType</t>
-        </is>
-      </c>
-      <c r="D1399" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D1399" s="2" t="inlineStr"/>
       <c r="E1399" s="2" t="inlineStr"/>
-      <c r="F1399" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)</t>
-        </is>
-      </c>
+      <c r="F1399" s="2" t="inlineStr"/>
       <c r="G1399" s="2" t="inlineStr"/>
-      <c r="H1399" s="2" t="inlineStr">
-        <is>
-          <t>@uom(optional)</t>
-        </is>
-      </c>
+      <c r="H1399" s="2" t="inlineStr"/>
       <c r="I1399" s="2" t="inlineStr"/>
       <c r="J1399" s="2" t="inlineStr"/>
       <c r="K1399" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L1399" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L1399" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -50882,37 +50417,24 @@
       </c>
       <c r="C1400" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: VolumeMeasureType</t>
-        </is>
-      </c>
-      <c r="D1400" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D1400" s="2" t="inlineStr"/>
       <c r="E1400" s="2" t="inlineStr"/>
-      <c r="F1400" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)</t>
-        </is>
-      </c>
+      <c r="F1400" s="2" t="inlineStr"/>
       <c r="G1400" s="2" t="inlineStr"/>
-      <c r="H1400" s="2" t="inlineStr">
-        <is>
-          <t>@uom(optional)</t>
-        </is>
-      </c>
+      <c r="H1400" s="2" t="inlineStr"/>
       <c r="I1400" s="2" t="inlineStr"/>
       <c r="J1400" s="2" t="inlineStr"/>
       <c r="K1400" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L1400" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L1400" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -51040,37 +50562,24 @@
       </c>
       <c r="C1404" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: VolumePerLengthMeasureType</t>
-        </is>
-      </c>
-      <c r="D1404" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D1404" s="2" t="inlineStr"/>
       <c r="E1404" s="2" t="inlineStr"/>
-      <c r="F1404" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)</t>
-        </is>
-      </c>
+      <c r="F1404" s="2" t="inlineStr"/>
       <c r="G1404" s="2" t="inlineStr"/>
-      <c r="H1404" s="2" t="inlineStr">
-        <is>
-          <t>@uom(optional)</t>
-        </is>
-      </c>
+      <c r="H1404" s="2" t="inlineStr"/>
       <c r="I1404" s="2" t="inlineStr"/>
       <c r="J1404" s="2" t="inlineStr"/>
       <c r="K1404" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L1404" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L1404" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -51393,37 +50902,24 @@
       </c>
       <c r="C1414" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: VolumePerTimeMeasureType</t>
-        </is>
-      </c>
-      <c r="D1414" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D1414" s="2" t="inlineStr"/>
       <c r="E1414" s="2" t="inlineStr"/>
-      <c r="F1414" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)</t>
-        </is>
-      </c>
+      <c r="F1414" s="2" t="inlineStr"/>
       <c r="G1414" s="2" t="inlineStr"/>
-      <c r="H1414" s="2" t="inlineStr">
-        <is>
-          <t>@uom(optional)</t>
-        </is>
-      </c>
+      <c r="H1414" s="2" t="inlineStr"/>
       <c r="I1414" s="2" t="inlineStr"/>
       <c r="J1414" s="2" t="inlineStr"/>
       <c r="K1414" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L1414" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L1414" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -51440,37 +50936,24 @@
       </c>
       <c r="C1415" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: VolumePerTimeMeasureType</t>
-        </is>
-      </c>
-      <c r="D1415" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D1415" s="2" t="inlineStr"/>
       <c r="E1415" s="2" t="inlineStr"/>
-      <c r="F1415" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)</t>
-        </is>
-      </c>
+      <c r="F1415" s="2" t="inlineStr"/>
       <c r="G1415" s="2" t="inlineStr"/>
-      <c r="H1415" s="2" t="inlineStr">
-        <is>
-          <t>@uom(optional)</t>
-        </is>
-      </c>
+      <c r="H1415" s="2" t="inlineStr"/>
       <c r="I1415" s="2" t="inlineStr"/>
       <c r="J1415" s="2" t="inlineStr"/>
       <c r="K1415" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L1415" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L1415" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -51895,37 +51378,24 @@
       </c>
       <c r="C1428" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: VolumePerVolumeMeasureType</t>
-        </is>
-      </c>
-      <c r="D1428" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D1428" s="2" t="inlineStr"/>
       <c r="E1428" s="2" t="inlineStr"/>
-      <c r="F1428" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)</t>
-        </is>
-      </c>
+      <c r="F1428" s="2" t="inlineStr"/>
       <c r="G1428" s="2" t="inlineStr"/>
-      <c r="H1428" s="2" t="inlineStr">
-        <is>
-          <t>@uom(optional)</t>
-        </is>
-      </c>
+      <c r="H1428" s="2" t="inlineStr"/>
       <c r="I1428" s="2" t="inlineStr"/>
       <c r="J1428" s="2" t="inlineStr"/>
       <c r="K1428" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L1428" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L1428" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -51942,37 +51412,24 @@
       </c>
       <c r="C1429" s="2" t="inlineStr">
         <is>
-          <t>Renamed to: VolumePerVolumeMeasureType</t>
-        </is>
-      </c>
-      <c r="D1429" s="2" t="inlineStr">
-        <is>
-          <t>DescriptorValueType (was: eml:AbstractMeasure)</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D1429" s="2" t="inlineStr"/>
       <c r="E1429" s="2" t="inlineStr"/>
-      <c r="F1429" s="2" t="inlineStr">
-        <is>
-          <t>@howDetermined(optional)
-@qualifier(optional)</t>
-        </is>
-      </c>
+      <c r="F1429" s="2" t="inlineStr"/>
       <c r="G1429" s="2" t="inlineStr"/>
-      <c r="H1429" s="2" t="inlineStr">
-        <is>
-          <t>@uom(optional)</t>
-        </is>
-      </c>
+      <c r="H1429" s="2" t="inlineStr"/>
       <c r="I1429" s="2" t="inlineStr"/>
       <c r="J1429" s="2" t="inlineStr"/>
       <c r="K1429" s="2" t="inlineStr">
         <is>
-          <t>Base type changed but content model compatible (architectural refactoring)</t>
-        </is>
-      </c>
-      <c r="L1429" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Type not found in new version</t>
+        </is>
+      </c>
+      <c r="L1429" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -55243,12 +54700,12 @@
     <row r="1">
       <c r="A1" s="5" t="inlineStr">
         <is>
-          <t>1.0 Types NOT in 1.0</t>
+          <t>1.3.1 Types NOT in 2.0</t>
         </is>
       </c>
       <c r="C1" s="5" t="inlineStr">
         <is>
-          <t>1.0 Types NOT in 1.0</t>
+          <t>2.0 Types NOT in 1.3.1</t>
         </is>
       </c>
     </row>
@@ -67465,12 +66922,12 @@
     <row r="1">
       <c r="A1" s="6" t="inlineStr">
         <is>
-          <t>1.0 Type Name</t>
+          <t>1.3.1 Type Name</t>
         </is>
       </c>
       <c r="B1" s="6" t="inlineStr">
         <is>
-          <t>1.0 Type Name</t>
+          <t>2.0 Type Name</t>
         </is>
       </c>
     </row>
@@ -67573,619 +67030,619 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AngularVelocityMeasure</t>
+          <t>AreaPerTimeMeasureType</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AngularVelocityMeasureType</t>
+          <t>AreaPerTimeMeasureType</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AngularVelocityMeasureExt</t>
+          <t>BearingBaseType</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AngularVelocityMeasureType</t>
+          <t>BearingMeasureBaseType</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AreaMeasure</t>
+          <t>BearingType</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AreaMeasureType</t>
+          <t>BearingMeasureType</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AreaPerAreaMeasure</t>
+          <t>ContinuousGroutInjectionPropertyType</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AreaPerAreaMeasureType</t>
+          <t>ContinuousGroutInjectionPropType</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AreaPerTimeMeasureType</t>
+          <t>DirectShearTestTrialPropertyType</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AreaPerTimeMeasureType</t>
+          <t>DirectShearTestIncrementPropertyType</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AziRef</t>
+          <t>DissipationTimeSeriesResultType</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AziRefEnumType</t>
+          <t>TemporalResultType</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BearingBaseType</t>
+          <t>FieldPropertiesPropertyType</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BearingMeasureBaseType</t>
+          <t>LithPropertiesPropertyType</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BearingType</t>
+          <t>FieldPropertiesType</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BearingMeasureType</t>
+          <t>LithPropertiesType</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ChannelDerivation</t>
+          <t>FlameIonizationDetectorTestType</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ChannelDerivationEnumType</t>
+          <t>diggs_geo:FlameIonizationDetectorTestType</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ChannelState</t>
+          <t>GroutInjectionPropertyType</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ChannelStateEnumType</t>
+          <t>GroutInjectionPropType</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ContinuousGroutInjectionPropertyType</t>
+          <t>GroutingTimeSeriesBaseType</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ContinuousGroutInjectionPropType</t>
+          <t>TemporalResultType</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Cost</t>
+          <t>InjectionDataPropertiesType</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CostType</t>
+          <t>PropertiesArrayPropertyYype</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DimensionlessMeasure</t>
+          <t>InjectionTimeSeriesBaseType</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DimensionlessMeasureType</t>
+          <t>TemporalResultType</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DirectShearTestTrialPropertyType</t>
+          <t>LengthPerTimeMeasureType</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DirectShearTestIncrementPropertyType</t>
+          <t>LengthPerTimeMeasureType</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DissipationTimeSeriesResultType</t>
+          <t>LimitPropertyType</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TemporalResultType</t>
+          <t>LimitArrayPropertyType</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DynamicViscosityMeasure</t>
+          <t>PlungeType</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DynamicViscosityMeasureType</t>
+          <t>PlungeMeasureType</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DynamicViscosityMeasureExt</t>
+          <t>PolygonPatchType</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DynamicViscosityMeasureType</t>
+          <t>PlanarSurfacePatchType</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ElectricPotentialDifferenceMeasureExt</t>
+          <t>PolygonType</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ElectricPotentialDifferenceMeasureType</t>
+          <t>PlanarSurfaceType</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>EnergyPerVolumeMeasure</t>
+          <t>PropertyType</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>EnergyPerVolumeMeasureType</t>
+          <t>PropertyType</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>FieldPropertiesPropertyType</t>
+          <t>SpecificGravityType</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>LithPropertiesPropertyType</t>
+          <t>SpecificGravityMeasureType</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>FieldPropertiesType</t>
+          <t>TemperatureMeasurementtPropertyType</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>LithPropertiesType</t>
+          <t>TemperatureMeasurementPropertyType</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>FlameIonizationDetectorTestType</t>
+          <t>Val0-100MeasureType</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>diggs_geo:FlameIonizationDetectorTestType</t>
+          <t>AbundanceMeasureType</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ForceMeasure</t>
+          <t>VolumeOrMassLossMeasure</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ForceMeasureType</t>
+          <t>VolumeOrMassLossMeasureType</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ForceMeasureExt</t>
+          <t>WaterContentType</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ForceMeasureType</t>
+          <t>WaterContentMeasureType</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ForcePerForceMeasureExt</t>
+          <t>eml:AngularVelocityMeasure</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ForcePerForceMeasureType</t>
+          <t>AngularVelocityMeasureType</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ForcePerLengthMeasure</t>
+          <t>eml:AngularVelocityMeasureExt</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ForcePerLengthMeasureType</t>
+          <t>AngularVelocityMeasureType</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ForcePerVolumeMeasure</t>
+          <t>eml:AreaMeasure</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ForcePerVolumeMeasureType</t>
+          <t>AreaMeasureType</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ForcePerVolumeMeasureExt</t>
+          <t>eml:AreaPerAreaMeasure</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ForcePerVolumeMeasureType</t>
+          <t>AreaPerAreaMeasureType</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>GenericMeasure</t>
+          <t>eml:DimensionlessMeasure</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>GenericMeasureType</t>
+          <t>DimensionlessMeasureType</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>GroutInjectionPropertyType</t>
+          <t>eml:DynamicViscosityMeasure</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>GroutInjectionPropType</t>
+          <t>DynamicViscosityMeasureType</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>GroutingTimeSeriesBaseType</t>
+          <t>eml:DynamicViscosityMeasureExt</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TemporalResultType</t>
+          <t>DynamicViscosityMeasureType</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>InjectionDataPropertiesType</t>
+          <t>eml:ElectricPotentialDifferenceMeasureExt</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PropertiesArrayPropertyYype</t>
+          <t>ElectricPotentialDifferenceMeasureType</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>InjectionTimeSeriesBaseType</t>
+          <t>eml:EnergyPerVolumeMeasure</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TemporalResultType</t>
+          <t>EnergyPerVolumeMeasureType</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>LengthMeasure</t>
+          <t>eml:ForceMeasure</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>LengthMeasureType</t>
+          <t>ForceMeasureType</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>LengthMeasureExt</t>
+          <t>eml:ForceMeasureExt</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>LengthMeasureType</t>
+          <t>ForceMeasureType</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>LengthPerLengthMeasure</t>
+          <t>eml:ForcePerForceMeasureExt</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>LengthPerLengthMeasureType</t>
+          <t>ForcePerForceMeasureType</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>LengthPerTimeMeasureType</t>
+          <t>eml:ForcePerLengthMeasure</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>LengthPerTimeMeasureType</t>
+          <t>ForcePerLengthMeasureType</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>LimitPropertyType</t>
+          <t>eml:ForcePerVolumeMeasure</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>LimitArrayPropertyType</t>
+          <t>ForcePerVolumeMeasureType</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MassMeasure</t>
+          <t>eml:ForcePerVolumeMeasureExt</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MassMeasureType</t>
+          <t>ForcePerVolumeMeasureType</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MassPerMassMeasure</t>
+          <t>eml:GenericMeasure</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MassPerMassMeasureType</t>
+          <t>GenericMeasureType</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MassPerVolumeMeasure</t>
+          <t>eml:LengthMeasure</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MassPerVolumeMeasureType</t>
+          <t>LengthMeasureType</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MeasurementType</t>
+          <t>eml:LengthMeasureExt</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>xs:double</t>
+          <t>LengthMeasureType</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MomentOfForceMeasure</t>
+          <t>eml:LengthPerLengthMeasure</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MomentOfForceMeasureType</t>
+          <t>LengthPerLengthMeasureType</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>MomentOfForceMeasureExt</t>
+          <t>eml:MassMeasure</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MomentOfForceMeasureType</t>
+          <t>MassMeasureType</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PermeabilityRockMeasure</t>
+          <t>eml:MassPerMassMeasure</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>PermeabilityRockMeasureType</t>
+          <t>MassPerMassMeasureType</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PlaneAngleMeasure</t>
+          <t>eml:MassPerVolumeMeasure</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PlaneAngleMeasureType</t>
+          <t>MassPerVolumeMeasureType</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PlungeType</t>
+          <t>eml:MomentOfForceMeasure</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PlungeMeasureType</t>
+          <t>MomentOfForceMeasureType</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PolygonPatchType</t>
+          <t>eml:MomentOfForceMeasureExt</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PlanarSurfacePatchType</t>
+          <t>MomentOfForceMeasureType</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PolygonType</t>
+          <t>eml:PermeabilityRockMeasure</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PlanarSurfaceType</t>
+          <t>PermeabilityRockMeasureType</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PowerMeasure</t>
+          <t>eml:PlaneAngleMeasure</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PowerMeasureType</t>
+          <t>PlaneAngleMeasureType</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PressureMeasure</t>
+          <t>eml:PowerMeasure</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PressureMeasureType</t>
+          <t>PowerMeasureType</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>PressureMeasureExt</t>
+          <t>eml:PressureMeasure</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -68197,31 +67654,31 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>PressurePerPressureMeasureExt</t>
+          <t>eml:PressureMeasureExt</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PressurePerPressureMeasureType</t>
+          <t>PressureMeasureType</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PropertyType</t>
+          <t>eml:PressurePerPressureMeasureExt</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>PropertyType</t>
+          <t>PressurePerPressureMeasureType</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ReciprocalPressureMeasureExt</t>
+          <t>eml:ReciprocalPressureMeasureExt</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -68233,7 +67690,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ReciprocalTimeMeasure</t>
+          <t>eml:ReciprocalTimeMeasure</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -68245,216 +67702,216 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SpecificGravityType</t>
+          <t>eml:ThermodynamicTemperatureMeasure</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SpecificGravityMeasureType</t>
+          <t>ThermodynamicTemperatureMeasureType</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>TemperatureMeasurementtPropertyType</t>
+          <t>eml:ThermodynamicTemperatureMeasureExt</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TemperatureMeasurementPropertyType</t>
+          <t>ThermodynamicTemperatureMeasureType</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ThermodynamicTemperatureMeasure</t>
+          <t>eml:TimeMeasure</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ThermodynamicTemperatureMeasureType</t>
+          <t>TimeMeasureType</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ThermodynamicTemperatureMeasureExt</t>
+          <t>eml:UnitlessMeasure</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ThermodynamicTemperatureMeasureType</t>
+          <t>DimensionlessMeasureType</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>TimeMeasure</t>
+          <t>eml:VolumeMeasure</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TimeMeasureType</t>
+          <t>VolumeMeasureType</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>UnitlessMeasure</t>
+          <t>eml:VolumeMeasureExt</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DimensionlessMeasureType</t>
+          <t>VolumeMeasureType</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Val0-100MeasureType</t>
+          <t>eml:VolumePerLengthMeasure</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>AbundanceMeasureType</t>
+          <t>VolumePerLengthMeasureType</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>VolumeMeasure</t>
+          <t>eml:VolumePerTimeMeasure</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>VolumeMeasureType</t>
+          <t>VolumePerTimeMeasureType</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>VolumeMeasureExt</t>
+          <t>eml:VolumePerTimeMeasureExt</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>VolumeMeasureType</t>
+          <t>VolumePerTimeMeasureType</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>VolumeOrMassLossMeasure</t>
+          <t>eml:VolumePerVolumeMeasure</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>VolumeOrMassLossMeasureType</t>
+          <t>VolumePerVolumeMeasureType</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>VolumePerLengthMeasure</t>
+          <t>eml:VolumePerVolumeMeasureExt</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>VolumePerLengthMeasureType</t>
+          <t>VolumePerVolumeMeasureType</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>VolumePerTimeMeasure</t>
+          <t>eml:generalMeasureType</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>VolumePerTimeMeasureType</t>
+          <t>GenericMeasureType</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>VolumePerTimeMeasureExt</t>
+          <t>pressureMeasureType</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>VolumePerTimeMeasureType</t>
+          <t>PressureMeasureType</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>VolumePerVolumeMeasure</t>
+          <t>witsml:AziRef</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>VolumePerVolumeMeasureType</t>
+          <t>AziRefEnumType</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>VolumePerVolumeMeasureExt</t>
+          <t>witsml:ChannelDerivation</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>VolumePerVolumeMeasureType</t>
+          <t>ChannelDerivationEnumType</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>WaterContentType</t>
+          <t>witsml:ChannelState</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>WaterContentMeasureType</t>
+          <t>ChannelStateEnumType</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>generalMeasureType</t>
+          <t>witsml:Cost</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>GenericMeasureType</t>
+          <t>CostType</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>pressureMeasureType</t>
+          <t>witsml:MeasurementType</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>PressureMeasureType</t>
+          <t>xs:double</t>
         </is>
       </c>
     </row>

--- a/version_compatibility/report.xlsx
+++ b/version_compatibility/report.xlsx
@@ -54700,12 +54700,12 @@
     <row r="1">
       <c r="A1" s="5" t="inlineStr">
         <is>
-          <t>1.3.1 Types NOT in 2.0</t>
+          <t>2.6 Types NOT in 3.0.0</t>
         </is>
       </c>
       <c r="C1" s="5" t="inlineStr">
         <is>
-          <t>2.0 Types NOT in 1.3.1</t>
+          <t>3.0.0 Types NOT in 2.6</t>
         </is>
       </c>
     </row>
@@ -66922,12 +66922,12 @@
     <row r="1">
       <c r="A1" s="6" t="inlineStr">
         <is>
-          <t>1.3.1 Type Name</t>
+          <t>2.6 Type Name</t>
         </is>
       </c>
       <c r="B1" s="6" t="inlineStr">
         <is>
-          <t>2.0 Type Name</t>
+          <t>3.0.0 Type Name</t>
         </is>
       </c>
     </row>
@@ -67839,7 +67839,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>GenericMeasureType</t>
+          <t>xs:double</t>
         </is>
       </c>
     </row>

--- a/version_compatibility/report.xlsx
+++ b/version_compatibility/report.xlsx
@@ -41277,14 +41277,14 @@
           <t>initialPreservationMethod: DiggsStringType → string [INCOMPATIBLE: Built-in type change: DiggsStringType → string]
 purpose: DiggsStringType → string [INCOMPATIBLE: Built-in type change: DiggsStringType → string]
 relativeReferenceSystemOrigin:  → relativeReferenceSystemOriginEnumType [OK]
-relativeReferencingSystem: AbstractRelativeReferenceSystemPropertyType → RelativeReferenceSystemPropertyType [INCOMPATIBLE: New required element: gml:AbstractSingleCRS]
+relativeReferencingSystem: AbstractRelativeReferenceSystemPropertyType → RelativeReferenceSystemPropertyType [INCOMPATIBLE: New required element: LinearSpatialReferenceSystem]
 sampleVolume: eml:VolumeMeasure → VolumeMeasureType [OK]
 sampleWeight: eml:ForceMeasure → ForceMeasureType [OK]</t>
         </is>
       </c>
       <c r="K1144" s="2" t="inlineStr">
         <is>
-          <t>Incompatible type change: initialPreservationMethod (Built-in type change: DiggsStringType → string); Incompatible type change: purpose (Built-in type change: DiggsStringType → string); Incompatible type change: relativeReferencingSystem (New required element: gml:AbstractSingleCRS)</t>
+          <t>Incompatible type change: initialPreservationMethod (Built-in type change: DiggsStringType → string); Incompatible type change: purpose (Built-in type change: DiggsStringType → string); Incompatible type change: relativeReferencingSystem (New required element: LinearSpatialReferenceSystem)</t>
         </is>
       </c>
       <c r="L1144" s="3" t="inlineStr">
@@ -66907,7 +66907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67318,598 +67318,4484 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>eml:AngularVelocityMeasure</t>
+          <t>eml:APIGammaRayMeasure</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>AngularVelocityMeasureType</t>
+          <t>APIGammaRayMeasureType</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>eml:AngularVelocityMeasureExt</t>
+          <t>eml:APIGammaRayMeasureExt</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AngularVelocityMeasureType</t>
+          <t>APIGammaRayMeasureType</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>eml:AreaMeasure</t>
+          <t>eml:APIGravityMeasure</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AreaMeasureType</t>
+          <t>APIGravityMeasureType</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>eml:AreaPerAreaMeasure</t>
+          <t>eml:APIGravityMeasureExt</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AreaPerAreaMeasureType</t>
+          <t>APIGravityMeasureType</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>eml:DimensionlessMeasure</t>
+          <t>eml:APINeutronMeasure</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DimensionlessMeasureType</t>
+          <t>APINeutronMeasureType</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>eml:DynamicViscosityMeasure</t>
+          <t>eml:APINeutronMeasureExt</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DynamicViscosityMeasureType</t>
+          <t>APINeutronMeasureType</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>eml:DynamicViscosityMeasureExt</t>
+          <t>eml:AbsorbedDoseMeasure</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DynamicViscosityMeasureType</t>
+          <t>AbsorbedDoseMeasureType</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>eml:ElectricPotentialDifferenceMeasureExt</t>
+          <t>eml:AbsorbedDoseMeasureExt</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ElectricPotentialDifferenceMeasureType</t>
+          <t>AbsorbedDoseMeasureType</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>eml:EnergyPerVolumeMeasure</t>
+          <t>eml:ActivityOfRadioactivityMeasure</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>EnergyPerVolumeMeasureType</t>
+          <t>ActivityOfRadioactivityMeasureType</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>eml:ForceMeasure</t>
+          <t>eml:ActivityOfRadioactivityMeasureExt</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ForceMeasureType</t>
+          <t>ActivityOfRadioactivityMeasureType</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>eml:ForceMeasureExt</t>
+          <t>eml:AmountOfSubstanceMeasure</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ForceMeasureType</t>
+          <t>AmountOfSubstanceMeasureType</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>eml:ForcePerForceMeasureExt</t>
+          <t>eml:AmountOfSubstanceMeasureExt</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ForcePerForceMeasureType</t>
+          <t>AmountOfSubstanceMeasureType</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>eml:ForcePerLengthMeasure</t>
+          <t>eml:AmountOfSubstancePerAmountOfSubstanceMeasure</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ForcePerLengthMeasureType</t>
+          <t>AmountOfSubstancePerAmountOfSubstanceMeasureType</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>eml:ForcePerVolumeMeasure</t>
+          <t>eml:AmountOfSubstancePerAmountOfSubstanceMeasureExt</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ForcePerVolumeMeasureType</t>
+          <t>AmountOfSubstancePerAmountOfSubstanceMeasureType</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>eml:ForcePerVolumeMeasureExt</t>
+          <t>eml:AmountOfSubstancePerAreaMeasure</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ForcePerVolumeMeasureType</t>
+          <t>AmountOfSubstancePerAreaMeasureType</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>eml:GenericMeasure</t>
+          <t>eml:AmountOfSubstancePerAreaMeasureExt</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>GenericMeasureType</t>
+          <t>AmountOfSubstancePerAreaMeasureType</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>eml:LengthMeasure</t>
+          <t>eml:AmountOfSubstancePerTimeMeasure</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>LengthMeasureType</t>
+          <t>AmountOfSubstancePerTimeMeasureType</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>eml:LengthMeasureExt</t>
+          <t>eml:AmountOfSubstancePerTimeMeasureExt</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>LengthMeasureType</t>
+          <t>AmountOfSubstancePerTimeMeasureType</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>eml:LengthPerLengthMeasure</t>
+          <t>eml:AmountOfSubstancePerTimePerAreaMeasure</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>LengthPerLengthMeasureType</t>
+          <t>AmountOfSubstancePerTimePerAreaMeasureType</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>eml:MassMeasure</t>
+          <t>eml:AmountOfSubstancePerTimePerAreaMeasureExt</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MassMeasureType</t>
+          <t>AmountOfSubstancePerTimePerAreaMeasureType</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>eml:MassPerMassMeasure</t>
+          <t>eml:AmountOfSubstancePerVolumeMeasure</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MassPerMassMeasureType</t>
+          <t>AmountOfSubstancePerVolumeMeasureType</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>eml:MassPerVolumeMeasure</t>
+          <t>eml:AmountOfSubstancePerVolumeMeasureExt</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MassPerVolumeMeasureType</t>
+          <t>AmountOfSubstancePerVolumeMeasureType</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>eml:MomentOfForceMeasure</t>
+          <t>eml:AnglePerLengthMeasure</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MomentOfForceMeasureType</t>
+          <t>AnglePerLengthMeasureType</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>eml:MomentOfForceMeasureExt</t>
+          <t>eml:AnglePerLengthMeasureExt</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MomentOfForceMeasureType</t>
+          <t>AnglePerLengthMeasureType</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>eml:PermeabilityRockMeasure</t>
+          <t>eml:AnglePerVolumeMeasure</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PermeabilityRockMeasureType</t>
+          <t>AnglePerVolumeMeasureType</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>eml:PlaneAngleMeasure</t>
+          <t>eml:AnglePerVolumeMeasureExt</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PlaneAngleMeasureType</t>
+          <t>AnglePerVolumeMeasureType</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>eml:PowerMeasure</t>
+          <t>eml:AngularAccelerationMeasure</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PowerMeasureType</t>
+          <t>AngularAccelerationMeasureType</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>eml:PressureMeasure</t>
+          <t>eml:AngularAccelerationMeasureExt</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PressureMeasureType</t>
+          <t>AngularAccelerationMeasureType</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>eml:PressureMeasureExt</t>
+          <t>eml:AngularVelocityMeasure</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PressureMeasureType</t>
+          <t>AngularVelocityMeasureType</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>eml:PressurePerPressureMeasureExt</t>
+          <t>eml:AngularVelocityMeasureExt</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>PressurePerPressureMeasureType</t>
+          <t>AngularVelocityMeasureType</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>eml:ReciprocalPressureMeasureExt</t>
+          <t>eml:AreaMeasure</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ReciprocalPressureMeasureType</t>
+          <t>AreaMeasureType</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>eml:ReciprocalTimeMeasure</t>
+          <t>eml:AreaMeasureExt</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ReciprocalTimeMeasureType</t>
+          <t>AreaMeasureType</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>eml:ThermodynamicTemperatureMeasure</t>
+          <t>eml:AreaPerAmountOfSubstanceMeasure</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ThermodynamicTemperatureMeasureType</t>
+          <t>AreaPerAmountOfSubstanceMeasureType</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>eml:ThermodynamicTemperatureMeasureExt</t>
+          <t>eml:AreaPerAmountOfSubstanceMeasureExt</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ThermodynamicTemperatureMeasureType</t>
+          <t>AreaPerAmountOfSubstanceMeasureType</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>eml:TimeMeasure</t>
+          <t>eml:AreaPerAreaMeasure</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TimeMeasureType</t>
+          <t>AreaPerAreaMeasureType</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>eml:UnitlessMeasure</t>
+          <t>eml:AreaPerAreaMeasureExt</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>DimensionlessMeasureType</t>
+          <t>AreaPerAreaMeasureType</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>eml:VolumeMeasure</t>
+          <t>eml:AreaPerCountMeasure</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>VolumeMeasureType</t>
+          <t>AreaPerCountMeasureType</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>eml:VolumeMeasureExt</t>
+          <t>eml:AreaPerCountMeasureExt</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>VolumeMeasureType</t>
+          <t>AreaPerCountMeasureType</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>eml:VolumePerLengthMeasure</t>
+          <t>eml:AreaPerMassMeasure</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>VolumePerLengthMeasureType</t>
+          <t>AreaPerMassMeasureType</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>eml:VolumePerTimeMeasure</t>
+          <t>eml:AreaPerMassMeasureExt</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>VolumePerTimeMeasureType</t>
+          <t>AreaPerMassMeasureType</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>eml:VolumePerTimeMeasureExt</t>
+          <t>eml:AreaPerTimeMeasure</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>VolumePerTimeMeasureType</t>
+          <t>AreaPerTimeMeasureType</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>eml:VolumePerVolumeMeasure</t>
+          <t>eml:AreaPerTimeMeasureExt</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>VolumePerVolumeMeasureType</t>
+          <t>AreaPerTimeMeasureType</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>eml:VolumePerVolumeMeasureExt</t>
+          <t>eml:AreaPerVolumeMeasure</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>VolumePerVolumeMeasureType</t>
+          <t>AreaPerVolumeMeasureType</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>eml:generalMeasureType</t>
+          <t>eml:AreaPerVolumeMeasureExt</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>xs:double</t>
+          <t>AreaPerVolumeMeasureType</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>pressureMeasureType</t>
+          <t>eml:AttenuationPerFrequencyIntervalMeasure</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PressureMeasureType</t>
+          <t>AttenuationPerFrequencyIntervalMeasureType</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>witsml:AziRef</t>
+          <t>eml:AttenuationPerFrequencyIntervalMeasureExt</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>AziRefEnumType</t>
+          <t>AttenuationPerFrequencyIntervalMeasureType</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>witsml:ChannelDerivation</t>
+          <t>eml:CapacitanceMeasure</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ChannelDerivationEnumType</t>
+          <t>CapacitanceMeasureType</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>witsml:ChannelState</t>
+          <t>eml:CapacitanceMeasureExt</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ChannelStateEnumType</t>
+          <t>CapacitanceMeasureType</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>witsml:Cost</t>
+          <t>eml:CationExchangeCapacityMeasure</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CostType</t>
+          <t>CationExchangeCapacityMeasureType</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
+          <t>eml:CationExchangeCapacityMeasureExt</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>CationExchangeCapacityMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>eml:DataTransferSpeedMeasure</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>DataTransferSpeedMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>eml:DataTransferSpeedMeasureExt</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>DataTransferSpeedMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>eml:DiffusionCoefficientMeasure</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>DiffusionCoefficientMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>eml:DiffusionCoefficientMeasureExt</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>DiffusionCoefficientMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>eml:DiffusiveTimeOfFlightMeasure</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>DiffusiveTimeOfFlightMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>eml:DiffusiveTimeOfFlightMeasureExt</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>DiffusiveTimeOfFlightMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>eml:DigitalStorageMeasure</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>DigitalStorageMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>eml:DigitalStorageMeasureExt</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>DigitalStorageMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>eml:DimensionlessMeasure</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>DimensionlessMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>eml:DimensionlessMeasureExt</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>DimensionlessMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>eml:DipoleMomentMeasure</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>DipoleMomentMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>eml:DipoleMomentMeasureExt</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>DipoleMomentMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>eml:DoseEquivalentMeasure</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>DoseEquivalentMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>eml:DoseEquivalentMeasureExt</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>DoseEquivalentMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>eml:DynamicViscosityMeasure</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>DynamicViscosityMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>eml:DynamicViscosityMeasureExt</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>DynamicViscosityMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>eml:ElectricChargeMeasure</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>ElectricChargeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>eml:ElectricChargeMeasureExt</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ElectricChargeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>eml:ElectricChargePerAreaMeasure</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>ElectricChargePerAreaMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>eml:ElectricChargePerAreaMeasureExt</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>ElectricChargePerAreaMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>eml:ElectricChargePerMassMeasure</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ElectricChargePerMassMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>eml:ElectricChargePerMassMeasureExt</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>ElectricChargePerMassMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>eml:ElectricChargePerVolumeMeasure</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>ElectricChargePerVolumeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>eml:ElectricChargePerVolumeMeasureExt</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>ElectricChargePerVolumeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>eml:ElectricConductanceMeasure</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>ElectricConductanceMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>eml:ElectricConductanceMeasureExt</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>ElectricConductanceMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>eml:ElectricConductivityMeasure</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>ElectricConductivityMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>eml:ElectricConductivityMeasureExt</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>ElectricConductivityMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>eml:ElectricCurrentDensityMeasure</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>ElectricCurrentDensityMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>eml:ElectricCurrentDensityMeasureExt</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>ElectricCurrentDensityMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>eml:ElectricCurrentMeasure</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>ElectricCurrentMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>eml:ElectricCurrentMeasureExt</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>ElectricCurrentMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>eml:ElectricFieldStrengthMeasure</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>ElectricFieldStrengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>eml:ElectricFieldStrengthMeasureExt</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>ElectricFieldStrengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>eml:ElectricPotentialDifferenceMeasure</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>ElectricPotentialDifferenceMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>eml:ElectricPotentialDifferenceMeasureExt</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>ElectricPotentialDifferenceMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>eml:ElectricResistanceMeasure</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>ElectricResistanceMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>eml:ElectricResistanceMeasureExt</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>ElectricResistanceMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>eml:ElectricResistancePerLengthMeasure</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>ElectricResistancePerLengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>eml:ElectricResistancePerLengthMeasureExt</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>ElectricResistancePerLengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>eml:ElectricalResistivityMeasure</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>ElectricalResistivityMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>eml:ElectricalResistivityMeasureExt</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>ElectricalResistivityMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>eml:ElectromagneticMomentMeasure</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>ElectromagneticMomentMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>eml:ElectromagneticMomentMeasureExt</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>ElectromagneticMomentMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>eml:EnergyLengthPerAreaMeasure</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>EnergyLengthPerAreaMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>eml:EnergyLengthPerAreaMeasureExt</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>EnergyLengthPerAreaMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>eml:EnergyLengthPerTimeAreaTemperatureMeasure</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>EnergyLengthPerTimeAreaTemperatureMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>eml:EnergyLengthPerTimeAreaTemperatureMeasureExt</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>EnergyLengthPerTimeAreaTemperatureMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>eml:EnergyMeasure</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>EnergyMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>eml:EnergyMeasureExt</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>EnergyMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>eml:EnergyPerAreaMeasure</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>EnergyPerAreaMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>eml:EnergyPerAreaMeasureExt</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>EnergyPerAreaMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>eml:EnergyPerLengthMeasure</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>EnergyPerLengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>eml:EnergyPerLengthMeasureExt</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>EnergyPerLengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>eml:EnergyPerMassMeasure</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>EnergyPerMassMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>eml:EnergyPerMassMeasureExt</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>EnergyPerMassMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>eml:EnergyPerMassPerTimeMeasure</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>EnergyPerMassPerTimeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>eml:EnergyPerMassPerTimeMeasureExt</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>EnergyPerMassPerTimeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>eml:EnergyPerVolumeMeasure</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>EnergyPerVolumeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>eml:EnergyPerVolumeMeasureExt</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>EnergyPerVolumeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>eml:ForceAreaMeasure</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>ForceAreaMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>eml:ForceAreaMeasureExt</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>ForceAreaMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>eml:ForceLengthPerLengthMeasure</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>ForceLengthPerLengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>eml:ForceLengthPerLengthMeasureExt</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>ForceLengthPerLengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>eml:ForceMeasure</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>ForceMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>eml:ForceMeasureExt</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>ForceMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>eml:ForcePerForceMeasure</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>ForcePerForceMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>eml:ForcePerForceMeasureExt</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>ForcePerForceMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>eml:ForcePerLengthMeasure</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>ForcePerLengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>eml:ForcePerLengthMeasureExt</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>ForcePerLengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>eml:ForcePerVolumeMeasure</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>ForcePerVolumeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>eml:ForcePerVolumeMeasureExt</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>ForcePerVolumeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>eml:FrequencyIntervalMeasure</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>FrequencyIntervalMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>eml:FrequencyIntervalMeasureExt</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>FrequencyIntervalMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>eml:FrequencyMeasure</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>FrequencyMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>eml:FrequencyMeasureExt</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>FrequencyMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>eml:HeatCapacityMeasure</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>HeatCapacityMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>eml:HeatCapacityMeasureExt</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>HeatCapacityMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>eml:HeatFlowRateMeasure</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>HeatFlowRateMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>eml:HeatFlowRateMeasureExt</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>HeatFlowRateMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>eml:HeatTransferCoefficientMeasure</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>HeatTransferCoefficientMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>eml:HeatTransferCoefficientMeasureExt</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>HeatTransferCoefficientMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>eml:IlluminanceMeasure</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>IlluminanceMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>eml:IlluminanceMeasureExt</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>IlluminanceMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>eml:InductanceMeasure</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>InductanceMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>eml:InductanceMeasureExt</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>InductanceMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>eml:IsothermalCompressibilityMeasure</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>IsothermalCompressibilityMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>eml:IsothermalCompressibilityMeasureExt</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>IsothermalCompressibilityMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>eml:JaggedArray</t>
+        </is>
+      </c>
+      <c r="B172" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>eml:KinematicViscosityMeasure</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>KinematicViscosityMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>eml:KinematicViscosityMeasureExt</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>KinematicViscosityMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>eml:LengthMeasure</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>LengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>eml:LengthMeasureExt</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>LengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>eml:LengthPerLengthMeasure</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>LengthPerLengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>eml:LengthPerLengthMeasureExt</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>LengthPerLengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>eml:LengthPerMassMeasure</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>LengthPerMassMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>eml:LengthPerMassMeasureExt</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>LengthPerMassMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>eml:LengthPerPressureMeasure</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>LengthPerPressureMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>eml:LengthPerPressureMeasureExt</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>LengthPerPressureMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>eml:LengthPerTemperatureMeasure</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>LengthPerTemperatureMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>eml:LengthPerTemperatureMeasureExt</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>LengthPerTemperatureMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>eml:LengthPerTimeMeasure</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>LengthPerTimeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>eml:LengthPerTimeMeasureExt</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>LengthPerTimeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>eml:LengthPerVolumeMeasure</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>LengthPerVolumeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>eml:LengthPerVolumeMeasureExt</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>LengthPerVolumeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>eml:LightExposureMeasure</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>LightExposureMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>eml:LightExposureMeasureExt</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>LightExposureMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>eml:LinearAccelerationMeasure</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>LinearAccelerationMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>eml:LinearAccelerationMeasureExt</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>LinearAccelerationMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>eml:LinearThermalExpansionMeasure</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>LinearThermalExpansionMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>eml:LinearThermalExpansionMeasureExt</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>LinearThermalExpansionMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>eml:LogarithmicPowerRatioMeasure</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>LogarithmicPowerRatioMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>eml:LogarithmicPowerRatioMeasureExt</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>LogarithmicPowerRatioMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>eml:LogarithmicPowerRatioPerLengthMeasure</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>LogarithmicPowerRatioPerLengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>eml:LogarithmicPowerRatioPerLengthMeasureExt</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>LogarithmicPowerRatioPerLengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>eml:LuminanceMeasure</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>LuminanceMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>eml:LuminanceMeasureExt</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>LuminanceMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>eml:LuminousEfficacyMeasure</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>LuminousEfficacyMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>eml:LuminousEfficacyMeasureExt</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>LuminousEfficacyMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>eml:LuminousFluxMeasure</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>LuminousFluxMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>eml:LuminousFluxMeasureExt</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>LuminousFluxMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>eml:LuminousIntensityMeasure</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>LuminousIntensityMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>eml:LuminousIntensityMeasureExt</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>LuminousIntensityMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>eml:MagneticDipoleMomentMeasure</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>MagneticDipoleMomentMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>eml:MagneticDipoleMomentMeasureExt</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>MagneticDipoleMomentMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>eml:MagneticFieldStrengthMeasure</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>MagneticFieldStrengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>eml:MagneticFieldStrengthMeasureExt</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>MagneticFieldStrengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>eml:MagneticFluxDensityMeasure</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>MagneticFluxDensityMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>eml:MagneticFluxDensityMeasureExt</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>MagneticFluxDensityMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>eml:MagneticFluxDensityPerLengthMeasure</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>MagneticFluxDensityPerLengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>eml:MagneticFluxDensityPerLengthMeasureExt</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>MagneticFluxDensityPerLengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>eml:MagneticFluxMeasure</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>MagneticFluxMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>eml:MagneticFluxMeasureExt</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>MagneticFluxMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>eml:MagneticPermeabilityMeasure</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>MagneticPermeabilityMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>eml:MagneticPermeabilityMeasureExt</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>MagneticPermeabilityMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>eml:MagneticVectorPotentialMeasure</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>MagneticVectorPotentialMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>eml:MagneticVectorPotentialMeasureExt</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>MagneticVectorPotentialMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>eml:MassLengthMeasure</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>MassLengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>eml:MassLengthMeasureExt</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>MassLengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>eml:MassMeasure</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>MassMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>eml:MassMeasureExt</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>MassMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>eml:MassPerAreaMeasure</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>MassPerAreaMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>eml:MassPerAreaMeasureExt</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>MassPerAreaMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>eml:MassPerEnergyMeasure</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>MassPerEnergyMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>eml:MassPerEnergyMeasureExt</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>MassPerEnergyMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>eml:MassPerLengthMeasure</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>MassPerLengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>eml:MassPerLengthMeasureExt</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>MassPerLengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>eml:MassPerMassMeasure</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>MassPerMassMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>eml:MassPerMassMeasureExt</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>MassPerMassMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>eml:MassPerTimeMeasure</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>MassPerTimeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>eml:MassPerTimeMeasureExt</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>MassPerTimeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>eml:MassPerTimePerAreaMeasure</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>MassPerTimePerAreaMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>eml:MassPerTimePerAreaMeasureExt</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>MassPerTimePerAreaMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>eml:MassPerTimePerLengthMeasure</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>MassPerTimePerLengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>eml:MassPerTimePerLengthMeasureExt</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>MassPerTimePerLengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>eml:MassPerVolumeMeasure</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>MassPerVolumeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>eml:MassPerVolumeMeasureExt</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>MassPerVolumeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>eml:MassPerVolumePerLengthMeasure</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>MassPerVolumePerLengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>eml:MassPerVolumePerLengthMeasureExt</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>MassPerVolumePerLengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>eml:MassPerVolumePerPressureMeasure</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>MassPerVolumePerPressureMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>eml:MassPerVolumePerPressureMeasureExt</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>MassPerVolumePerPressureMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>eml:MassPerVolumePerTemperatureMeasure</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>MassPerVolumePerTemperatureMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>eml:MassPerVolumePerTemperatureMeasureExt</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>MassPerVolumePerTemperatureMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>eml:MobilityMeasure</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>MobilityMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>eml:MobilityMeasureExt</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>MobilityMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>eml:MolarEnergyMeasure</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>MolarEnergyMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>eml:MolarEnergyMeasureExt</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>MolarEnergyMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>eml:MolarHeatCapacityMeasure</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>MolarHeatCapacityMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>eml:MolarHeatCapacityMeasureExt</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>MolarHeatCapacityMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>eml:MolarVolumeMeasure</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>MolarVolumeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>eml:MolarVolumeMeasureExt</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>MolarVolumeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>eml:MolecularWeightMeasure</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>MolecularWeightMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>eml:MolecularWeightMeasureExt</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>MolecularWeightMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>eml:MomentOfForceMeasure</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>MomentOfForceMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>eml:MomentOfForceMeasureExt</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>MomentOfForceMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>eml:MomentOfInertiaMeasure</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>MomentOfInertiaMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>eml:MomentOfInertiaMeasureExt</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>MomentOfInertiaMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>eml:MomentumMeasure</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>MomentumMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>eml:MomentumMeasureExt</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>MomentumMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>eml:NormalizedPowerMeasure</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>NormalizedPowerMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>eml:NormalizedPowerMeasureExt</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>NormalizedPowerMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>eml:PermeabilityLengthMeasure</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>PermeabilityLengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>eml:PermeabilityLengthMeasureExt</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>PermeabilityLengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>eml:PermeabilityRockMeasure</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>PermeabilityRockMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>eml:PermeabilityRockMeasureExt</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>PermeabilityRockMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>eml:PermittivityMeasure</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>PermittivityMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>eml:PermittivityMeasureExt</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>PermittivityMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>eml:PlaneAngleMeasure</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>PlaneAngleMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>eml:PlaneAngleMeasureExt</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>PlaneAngleMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>eml:PotentialDifferencePerPowerDropMeasure</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>PotentialDifferencePerPowerDropMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>eml:PotentialDifferencePerPowerDropMeasureExt</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>PotentialDifferencePerPowerDropMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>eml:PowerMeasure</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>PowerMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>eml:PowerMeasureExt</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>PowerMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>eml:PowerPerAreaMeasure</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>PowerPerAreaMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>eml:PowerPerAreaMeasureExt</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>PowerPerAreaMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>eml:PowerPerPowerMeasure</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>PowerPerPowerMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>eml:PowerPerPowerMeasureExt</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>PowerPerPowerMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>eml:PowerPerVolumeMeasure</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>PowerPerVolumeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>eml:PowerPerVolumeMeasureExt</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>PowerPerVolumeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>eml:PressureMeasure</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>PressureMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>eml:PressureMeasureExt</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>PressureMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>eml:PressurePerPressureMeasure</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>PressurePerPressureMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>eml:PressurePerPressureMeasureExt</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>PressurePerPressureMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>eml:PressurePerTimeMeasure</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>PressurePerTimeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>eml:PressurePerTimeMeasureExt</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>PressurePerTimeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>eml:PressurePerVolumeMeasure</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>PressurePerVolumeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>eml:PressurePerVolumeMeasureExt</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>PressurePerVolumeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>eml:PressureSquaredMeasure</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>PressureSquaredMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>eml:PressureSquaredMeasureExt</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>PressureSquaredMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>eml:PressureSquaredPerForceTimePerAreaMeasure</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>PressureSquaredPerForceTimePerAreaMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>eml:PressureSquaredPerForceTimePerAreaMeasureExt</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>PressureSquaredPerForceTimePerAreaMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>eml:PressureTimePerVolumeMeasure</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>PressureTimePerVolumeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>eml:PressureTimePerVolumeMeasureExt</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>PressureTimePerVolumeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>eml:QuantityOfLightMeasure</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>QuantityOfLightMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>eml:QuantityOfLightMeasureExt</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>QuantityOfLightMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>eml:RadianceMeasure</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>RadianceMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>eml:RadianceMeasureExt</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>RadianceMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>eml:RadiantIntensityMeasure</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>RadiantIntensityMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>eml:RadiantIntensityMeasureExt</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>RadiantIntensityMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>eml:ReciprocalAreaMeasure</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>ReciprocalAreaMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>eml:ReciprocalAreaMeasureExt</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>ReciprocalAreaMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>eml:ReciprocalElectricPotentialDifferenceMeasure</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>ReciprocalElectricPotentialDifferenceMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>eml:ReciprocalElectricPotentialDifferenceMeasureExt</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>ReciprocalElectricPotentialDifferenceMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>eml:ReciprocalForceMeasure</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>ReciprocalForceMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>eml:ReciprocalForceMeasureExt</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>ReciprocalForceMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>eml:ReciprocalLengthMeasure</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>ReciprocalLengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>eml:ReciprocalLengthMeasureExt</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>ReciprocalLengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>eml:ReciprocalMassMeasure</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>ReciprocalMassMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>eml:ReciprocalMassMeasureExt</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>ReciprocalMassMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>eml:ReciprocalMassTimeMeasure</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>ReciprocalMassTimeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>eml:ReciprocalMassTimeMeasureExt</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>ReciprocalMassTimeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>eml:ReciprocalPressureMeasure</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>ReciprocalPressureMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>eml:ReciprocalPressureMeasureExt</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>ReciprocalPressureMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>eml:ReciprocalTimeMeasure</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>ReciprocalTimeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>eml:ReciprocalTimeMeasureExt</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>ReciprocalTimeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>eml:ReciprocalVolumeMeasure</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>ReciprocalVolumeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>eml:ReciprocalVolumeMeasureExt</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>ReciprocalVolumeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>eml:ReluctanceMeasure</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>ReluctanceMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>eml:ReluctanceMeasureExt</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>ReluctanceMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>eml:SecondMomentOfAreaMeasure</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>SecondMomentOfAreaMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>eml:SecondMomentOfAreaMeasureExt</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>SecondMomentOfAreaMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>eml:SignalingEventPerTimeMeasure</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>SignalingEventPerTimeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>eml:SignalingEventPerTimeMeasureExt</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>SignalingEventPerTimeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>eml:SolidAngleMeasure</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>SolidAngleMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>eml:SolidAngleMeasureExt</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>SolidAngleMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>eml:SpecificHeatCapacityMeasure</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>SpecificHeatCapacityMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>eml:SpecificHeatCapacityMeasureExt</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>SpecificHeatCapacityMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>eml:TemperatureIntervalMeasure</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>TemperatureIntervalMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>eml:TemperatureIntervalMeasureExt</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>TemperatureIntervalMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>eml:TemperatureIntervalPerLengthMeasure</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>TemperatureIntervalPerLengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>eml:TemperatureIntervalPerLengthMeasureExt</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>TemperatureIntervalPerLengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>eml:TemperatureIntervalPerPressureMeasure</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>TemperatureIntervalPerPressureMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>eml:TemperatureIntervalPerPressureMeasureExt</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>TemperatureIntervalPerPressureMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>eml:TemperatureIntervalPerTimeMeasure</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>TemperatureIntervalPerTimeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>eml:TemperatureIntervalPerTimeMeasureExt</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>TemperatureIntervalPerTimeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>eml:ThermalConductanceMeasure</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>ThermalConductanceMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>eml:ThermalConductanceMeasureExt</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>ThermalConductanceMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>eml:ThermalConductivityMeasure</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>ThermalConductivityMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>eml:ThermalConductivityMeasureExt</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>ThermalConductivityMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>eml:ThermalDiffusivityMeasure</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>ThermalDiffusivityMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>eml:ThermalDiffusivityMeasureExt</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>ThermalDiffusivityMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>eml:ThermalInsulanceMeasure</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>ThermalInsulanceMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>eml:ThermalInsulanceMeasureExt</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>ThermalInsulanceMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>eml:ThermalResistanceMeasure</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>ThermalResistanceMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>eml:ThermalResistanceMeasureExt</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>ThermalResistanceMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>eml:ThermodynamicTemperatureMeasure</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>ThermodynamicTemperatureMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>eml:ThermodynamicTemperatureMeasureExt</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>ThermodynamicTemperatureMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>eml:ThermodynamicTemperaturePerThermodynamicTemperatureMeasure</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>ThermodynamicTemperaturePerThermodynamicTemperatureMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>eml:ThermodynamicTemperaturePerThermodynamicTemperatureMeasureExt</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>ThermodynamicTemperaturePerThermodynamicTemperatureMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>eml:TimeMeasure</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>TimeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>eml:TimeMeasureExt</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>TimeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>eml:TimePerLengthMeasure</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>TimePerLengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>eml:TimePerLengthMeasureExt</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>TimePerLengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>eml:TimePerMassMeasure</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>TimePerMassMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>eml:TimePerMassMeasureExt</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>TimePerMassMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>eml:TimePerTimeMeasure</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>TimePerTimeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>eml:TimePerTimeMeasureExt</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>TimePerTimeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>eml:TimePerVolumeMeasure</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>TimePerVolumeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>eml:TimePerVolumeMeasureExt</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>TimePerVolumeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>eml:UnitlessMeasure</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>xs:double</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>eml:VerticalCoordinateMeasure</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>VerticalCoordinateMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>eml:VerticalCoordinateMeasureExt</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>VerticalCoordinateMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>eml:VolumeFlowRatePerVolumeFlowRateMeasure</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>VolumeFlowRatePerVolumeFlowRateMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>eml:VolumeFlowRatePerVolumeFlowRateMeasureExt</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>VolumeFlowRatePerVolumeFlowRateMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>eml:VolumeMeasure</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>VolumeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>eml:VolumeMeasureExt</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>VolumeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>eml:VolumePerAreaMeasure</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>VolumePerAreaMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>eml:VolumePerAreaMeasureExt</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>VolumePerAreaMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>eml:VolumePerLengthMeasure</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>VolumePerLengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>eml:VolumePerLengthMeasureExt</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>VolumePerLengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>eml:VolumePerMassMeasure</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>VolumePerMassMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>eml:VolumePerMassMeasureExt</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>VolumePerMassMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>eml:VolumePerPressureMeasure</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>VolumePerPressureMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>eml:VolumePerPressureMeasureExt</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>VolumePerPressureMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>eml:VolumePerRotationMeasure</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>VolumePerRotationMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>eml:VolumePerRotationMeasureExt</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>VolumePerRotationMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>eml:VolumePerTimeLengthMeasure</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>VolumePerTimeLengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>eml:VolumePerTimeLengthMeasureExt</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>VolumePerTimeLengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>eml:VolumePerTimeMeasure</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>VolumePerTimeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>eml:VolumePerTimeMeasureExt</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>VolumePerTimeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>eml:VolumePerTimePerAreaMeasure</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>VolumePerTimePerAreaMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>eml:VolumePerTimePerAreaMeasureExt</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>VolumePerTimePerAreaMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>eml:VolumePerTimePerLengthMeasure</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>VolumePerTimePerLengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>eml:VolumePerTimePerLengthMeasureExt</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>VolumePerTimePerLengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>eml:VolumePerTimePerPressureLengthMeasure</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>VolumePerTimePerPressureLengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>eml:VolumePerTimePerPressureLengthMeasureExt</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>VolumePerTimePerPressureLengthMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>eml:VolumePerTimePerPressureMeasure</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>VolumePerTimePerPressureMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>eml:VolumePerTimePerPressureMeasureExt</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>VolumePerTimePerPressureMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>eml:VolumePerTimePerTimeMeasure</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>VolumePerTimePerTimeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>eml:VolumePerTimePerTimeMeasureExt</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>VolumePerTimePerTimeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>eml:VolumePerTimePerVolumeMeasure</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>VolumePerTimePerVolumeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>eml:VolumePerTimePerVolumeMeasureExt</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>VolumePerTimePerVolumeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>eml:VolumePerVolumeMeasure</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>VolumePerVolumeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>eml:VolumePerVolumeMeasureExt</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>VolumePerVolumeMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>eml:VolumetricHeatTransferCoefficientMeasure</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>VolumetricHeatTransferCoefficientMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>eml:VolumetricHeatTransferCoefficientMeasureExt</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>VolumetricHeatTransferCoefficientMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>eml:VolumetricThermalExpansionMeasure</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>VolumetricThermalExpansionMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>eml:VolumetricThermalExpansionMeasureExt</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>VolumetricThermalExpansionMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>pressureMeasureType</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>PressureMeasureType</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>witsml:AziRef</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>AziRefEnumType</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>witsml:ChannelDerivation</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>ChannelDerivationEnumType</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>witsml:ChannelState</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>ChannelStateEnumType</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>witsml:Cost</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>CostType</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
           <t>witsml:MeasurementType</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B407" t="inlineStr">
         <is>
           <t>xs:double</t>
         </is>

--- a/version_compatibility/report.xlsx
+++ b/version_compatibility/report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/validation/version_compatibility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E31FA8-79F3-0F41-BB03-E4FD87B684E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9840A2A2-F9A2-214A-A05C-18C8045A2E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="58540" windowHeight="32100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12279,7 +12279,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L174" sqref="L174"/>
+      <selection pane="bottomLeft" activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16316,8 +16316,8 @@
       <c r="K176" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="L176" s="15" t="s">
-        <v>13</v>
+      <c r="L176" s="12" t="s">
+        <v>3631</v>
       </c>
     </row>
     <row r="177" spans="2:12" ht="380" x14ac:dyDescent="0.2">
@@ -16343,8 +16343,8 @@
       <c r="K177" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="L177" s="15" t="s">
-        <v>13</v>
+      <c r="L177" s="12" t="s">
+        <v>3631</v>
       </c>
     </row>
     <row r="178" spans="2:12" ht="192" x14ac:dyDescent="0.2">
